--- a/biology/Zoologie/Cyerce_elegans/Cyerce_elegans.xlsx
+++ b/biology/Zoologie/Cyerce_elegans/Cyerce_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyerce elegans est une espèce de limaces de mer sacoglosses de la famille des Caliphyllidae. 
 Elle est translucide, avec une coloration allant du jaune pâle au marron rougeâtre. Les cerata sont grands, en forme d'oreillers. 
